--- a/Table/Table_xls/D答题.xlsx
+++ b/Table/Table_xls/D答题.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>序列</t>
   </si>
@@ -100,430 +100,433 @@
     <t>皇宫飞贼</t>
   </si>
   <si>
+    <t>飞升副本</t>
+  </si>
+  <si>
+    <t>所有BOSS中难度最高的任务是什么？</t>
+  </si>
+  <si>
+    <t>生死劫</t>
+  </si>
+  <si>
+    <t>蚩尤封印</t>
+  </si>
+  <si>
+    <t>6星天罡地煞</t>
+  </si>
+  <si>
+    <t>提升修炼最快的方法是什么？</t>
+  </si>
+  <si>
+    <t>跑环</t>
+  </si>
+  <si>
+    <t>刷BOSS</t>
+  </si>
+  <si>
+    <t>找GM</t>
+  </si>
+  <si>
+    <t>修炼最高多少级？</t>
+  </si>
+  <si>
+    <t>高级宝图打什么可以掉落？</t>
+  </si>
+  <si>
+    <t>店小二任务</t>
+  </si>
+  <si>
+    <t>所有BOSS</t>
+  </si>
+  <si>
+    <t>星宿</t>
+  </si>
+  <si>
+    <t>每天必做的任务是什么？</t>
+  </si>
+  <si>
+    <t>师门</t>
+  </si>
+  <si>
+    <t>答题</t>
+  </si>
+  <si>
+    <t>以上皆是</t>
+  </si>
+  <si>
+    <t>月卡多少仙玉一张？</t>
+  </si>
+  <si>
+    <t>9800个</t>
+  </si>
+  <si>
+    <t>300个</t>
+  </si>
+  <si>
+    <t>9800万</t>
+  </si>
+  <si>
+    <t>GM首充多少钱？</t>
+  </si>
+  <si>
+    <t>不充值</t>
+  </si>
+  <si>
+    <t>没有首充</t>
+  </si>
+  <si>
+    <t>10元</t>
+  </si>
+  <si>
+    <t>摆摊交易需要什么？</t>
+  </si>
+  <si>
+    <t>什么都不需要</t>
+  </si>
+  <si>
+    <t>信用值</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>需要激活什么才能摆摊交易？</t>
+  </si>
+  <si>
+    <t>免费关联手机</t>
+  </si>
+  <si>
+    <t>课金</t>
+  </si>
+  <si>
+    <t>本服共有多少个门派？</t>
+  </si>
+  <si>
+    <t>门派大唐官府主要作用是什么？</t>
+  </si>
+  <si>
+    <t>点杀</t>
+  </si>
+  <si>
+    <t>加血</t>
+  </si>
+  <si>
+    <t>封印</t>
+  </si>
+  <si>
+    <t>门派化生寺主要作用是什么？</t>
+  </si>
+  <si>
+    <t>隐身</t>
+  </si>
+  <si>
+    <t>门派方寸山主要作用是什么？</t>
+  </si>
+  <si>
+    <t>救人</t>
+  </si>
+  <si>
+    <t>群秒</t>
+  </si>
+  <si>
+    <t>门派狮驼岭主要作用是什么？</t>
+  </si>
+  <si>
+    <t>群攻</t>
+  </si>
+  <si>
+    <t>门派魔王寨主要作用是什么？</t>
+  </si>
+  <si>
+    <t>辅助</t>
+  </si>
+  <si>
+    <t>门派阴府主要作用是什么？</t>
+  </si>
+  <si>
+    <t>门派盘丝洞主要作用是什么？</t>
+  </si>
+  <si>
+    <t>门派凌波城要作用是什么？</t>
+  </si>
+  <si>
+    <t>门派五庄观主要作用是什么？</t>
+  </si>
+  <si>
+    <t>袁守城在那个位置？</t>
+  </si>
+  <si>
+    <t>建业</t>
+  </si>
+  <si>
+    <t>西梁女国</t>
+  </si>
+  <si>
+    <t>长安</t>
+  </si>
+  <si>
+    <t>商城宝石最高可以购买多少级？</t>
+  </si>
+  <si>
+    <t>等级突破找谁？</t>
+  </si>
+  <si>
+    <t>泡泡</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>袁守城</t>
+  </si>
+  <si>
+    <t>神兽总共可以突破多少次？</t>
+  </si>
+  <si>
+    <t>本服是什么服？</t>
+  </si>
+  <si>
+    <t>极致仿官</t>
+  </si>
+  <si>
+    <t>微变态</t>
+  </si>
+  <si>
+    <t>超变态</t>
+  </si>
+  <si>
+    <t>鬼将是多少等级擕带的宝宝？</t>
+  </si>
+  <si>
+    <t>大力金刚是多少等级擕带的宝宝？</t>
+  </si>
+  <si>
+    <t>护卫是多少等级擕带的宝宝？</t>
+  </si>
+  <si>
+    <t>修罗傀儡鬼是多少等级擕带的宝宝？</t>
+  </si>
+  <si>
+    <t>修罗傀儡妖是多少等级擕带的宝宝？</t>
+  </si>
+  <si>
+    <t>蜃气妖是多少等级擕带的宝宝？</t>
+  </si>
+  <si>
+    <t>凈瓶女娲是多少等级擕带的宝宝？</t>
+  </si>
+  <si>
+    <t>毗舍童子是多少等级擕带的宝宝？</t>
+  </si>
+  <si>
+    <t>幽灵是多少等级擕带的宝宝？</t>
+  </si>
+  <si>
+    <t>游戏发现有人拉人、打广告应该？</t>
+  </si>
+  <si>
+    <t>向GM举报</t>
+  </si>
+  <si>
+    <t>一起拉</t>
+  </si>
+  <si>
+    <t>当作看不见</t>
+  </si>
+  <si>
+    <t>律法女娲是多少等级擕带的宝宝？</t>
+  </si>
+  <si>
+    <t>举报游戏拉人、打广告奖励多少金币？</t>
+  </si>
+  <si>
+    <t>5万</t>
+  </si>
+  <si>
+    <t>10万</t>
+  </si>
+  <si>
+    <t>30万</t>
+  </si>
+  <si>
+    <t>群內发现有人拉人、打广告应该？</t>
+  </si>
+  <si>
+    <t>举报群內拉人奖励多少金币？</t>
+  </si>
+  <si>
+    <t>三界菁英是什么活动第一的称谓？</t>
+  </si>
+  <si>
+    <t>帮派竞赛</t>
+  </si>
+  <si>
+    <t>比武大会</t>
+  </si>
+  <si>
+    <t>门派闯关</t>
+  </si>
+  <si>
+    <t>本服装备最高多少级？</t>
+  </si>
+  <si>
+    <t>本服宝石最高可以合多少级？</t>
+  </si>
+  <si>
+    <t>多少级装备可以镶嵌21级宝石？</t>
+  </si>
+  <si>
+    <t>什么特效可以穿比自身更高级的装备？</t>
+  </si>
+  <si>
+    <t>神农</t>
+  </si>
+  <si>
+    <t>无视装备等级</t>
+  </si>
+  <si>
+    <t>无级别限制</t>
+  </si>
+  <si>
+    <t>一件装备最高可以镶嵌多少个宝石？</t>
+  </si>
+  <si>
+    <t>本服灵饰最高多少级？</t>
+  </si>
+  <si>
+    <t>月卡一天可以免费得多少金币？</t>
+  </si>
+  <si>
+    <t>50万</t>
+  </si>
+  <si>
+    <t>月卡一天可以免费得多少信用值？</t>
+  </si>
+  <si>
+    <t>3万</t>
+  </si>
+  <si>
+    <t>月卡一天可以免费得多少神兜兜？</t>
+  </si>
+  <si>
+    <t>5个</t>
+  </si>
+  <si>
+    <t>10个</t>
+  </si>
+  <si>
+    <t>20个</t>
+  </si>
+  <si>
+    <t>月卡一天可以免费得多少修炼果和九转金丹？</t>
+  </si>
+  <si>
+    <t>1千个</t>
+  </si>
+  <si>
+    <t>2千个</t>
+  </si>
+  <si>
+    <t>3千个</t>
+  </si>
+  <si>
+    <t>月卡多少钱一张？</t>
+  </si>
+  <si>
+    <t>30元</t>
+  </si>
+  <si>
+    <t>40元</t>
+  </si>
+  <si>
+    <t>50元</t>
+  </si>
+  <si>
+    <t>GM开服的原因？</t>
+  </si>
+  <si>
+    <t>赚钱</t>
+  </si>
+  <si>
+    <t>热爱梦幻</t>
+  </si>
+  <si>
+    <t>无聊</t>
+  </si>
+  <si>
+    <t>星宿的奖励多少金币？</t>
+  </si>
+  <si>
+    <t>梦魔夜叉奖励多少金币？</t>
+  </si>
+  <si>
+    <t>星宿多少超过多少钱不能打？</t>
+  </si>
+  <si>
+    <t>梦魔夜叉要多少级才可以打？</t>
+  </si>
+  <si>
+    <t>宝宝最高可以合成多少技能？</t>
+  </si>
+  <si>
+    <t>一只宝宝最多可以吃多少个元宵？</t>
+  </si>
+  <si>
+    <t>15个</t>
+  </si>
+  <si>
+    <t>以下其中那个是稀有技能？</t>
+  </si>
+  <si>
+    <t>高级必杀</t>
+  </si>
+  <si>
+    <t>洞察</t>
+  </si>
+  <si>
+    <t>水漫金山</t>
+  </si>
+  <si>
+    <t>力劈华山</t>
+  </si>
+  <si>
+    <t>高级连击</t>
+  </si>
+  <si>
+    <t>高级偷袭</t>
+  </si>
+  <si>
+    <t>神马浮云</t>
+  </si>
+  <si>
+    <t>高级强力</t>
+  </si>
+  <si>
+    <t>高级夜战</t>
+  </si>
+  <si>
+    <t>高级法爆</t>
+  </si>
+  <si>
+    <t>须弥真言</t>
+  </si>
+  <si>
+    <t>级级魔之心</t>
+  </si>
+  <si>
+    <t>高级否定</t>
+  </si>
+  <si>
+    <t>高级水吸</t>
+  </si>
+  <si>
+    <t>劫雷降临</t>
+  </si>
+  <si>
+    <t>以下那个BOSS难度最大？</t>
+  </si>
+  <si>
     <t>万年妖王</t>
-  </si>
-  <si>
-    <t>所有BOSS中难度最高的任务是什么？</t>
-  </si>
-  <si>
-    <t>生死劫</t>
-  </si>
-  <si>
-    <t>蚩尤封印</t>
-  </si>
-  <si>
-    <t>6星天罡地煞</t>
-  </si>
-  <si>
-    <t>提升修炼最快的方法是什么？</t>
-  </si>
-  <si>
-    <t>跑环</t>
-  </si>
-  <si>
-    <t>刷BOSS</t>
-  </si>
-  <si>
-    <t>找GM</t>
-  </si>
-  <si>
-    <t>修炼最高多少级？</t>
-  </si>
-  <si>
-    <t>高级宝图打什么可以掉落？</t>
-  </si>
-  <si>
-    <t>店小二任务</t>
-  </si>
-  <si>
-    <t>所有BOSS</t>
-  </si>
-  <si>
-    <t>星宿</t>
-  </si>
-  <si>
-    <t>每天必做的任务是什么？</t>
-  </si>
-  <si>
-    <t>师门</t>
-  </si>
-  <si>
-    <t>答题</t>
-  </si>
-  <si>
-    <t>以上皆是</t>
-  </si>
-  <si>
-    <t>月卡多少仙玉一张？</t>
-  </si>
-  <si>
-    <t>9800个</t>
-  </si>
-  <si>
-    <t>300个</t>
-  </si>
-  <si>
-    <t>9800万</t>
-  </si>
-  <si>
-    <t>GM首充多少钱？</t>
-  </si>
-  <si>
-    <t>不充值</t>
-  </si>
-  <si>
-    <t>没有首充</t>
-  </si>
-  <si>
-    <t>10元</t>
-  </si>
-  <si>
-    <t>摆摊交易需要什么？</t>
-  </si>
-  <si>
-    <t>什么都不需要</t>
-  </si>
-  <si>
-    <t>信用值</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>需要激活什么才能摆摊交易？</t>
-  </si>
-  <si>
-    <t>免费关联手机</t>
-  </si>
-  <si>
-    <t>课金</t>
-  </si>
-  <si>
-    <t>本服共有多少个门派？</t>
-  </si>
-  <si>
-    <t>门派大唐官府主要作用是什么？</t>
-  </si>
-  <si>
-    <t>点杀</t>
-  </si>
-  <si>
-    <t>加血</t>
-  </si>
-  <si>
-    <t>封印</t>
-  </si>
-  <si>
-    <t>门派化生寺主要作用是什么？</t>
-  </si>
-  <si>
-    <t>隐身</t>
-  </si>
-  <si>
-    <t>门派方寸山主要作用是什么？</t>
-  </si>
-  <si>
-    <t>救人</t>
-  </si>
-  <si>
-    <t>群秒</t>
-  </si>
-  <si>
-    <t>门派狮驼岭主要作用是什么？</t>
-  </si>
-  <si>
-    <t>群攻</t>
-  </si>
-  <si>
-    <t>门派魔王寨主要作用是什么？</t>
-  </si>
-  <si>
-    <t>辅助</t>
-  </si>
-  <si>
-    <t>门派阴府主要作用是什么？</t>
-  </si>
-  <si>
-    <t>门派盘丝洞主要作用是什么？</t>
-  </si>
-  <si>
-    <t>门派凌波城要作用是什么？</t>
-  </si>
-  <si>
-    <t>门派五庄观主要作用是什么？</t>
-  </si>
-  <si>
-    <t>袁守城在那个位置？</t>
-  </si>
-  <si>
-    <t>建业</t>
-  </si>
-  <si>
-    <t>西梁女国</t>
-  </si>
-  <si>
-    <t>长安</t>
-  </si>
-  <si>
-    <t>商城宝石最高可以购买多少级？</t>
-  </si>
-  <si>
-    <t>等级突破找谁？</t>
-  </si>
-  <si>
-    <t>泡泡</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>袁守城</t>
-  </si>
-  <si>
-    <t>神兽总共可以突破多少次？</t>
-  </si>
-  <si>
-    <t>本服是什么服？</t>
-  </si>
-  <si>
-    <t>极致仿官</t>
-  </si>
-  <si>
-    <t>微变态</t>
-  </si>
-  <si>
-    <t>超变态</t>
-  </si>
-  <si>
-    <t>鬼将是多少等级擕带的宝宝？</t>
-  </si>
-  <si>
-    <t>大力金刚是多少等级擕带的宝宝？</t>
-  </si>
-  <si>
-    <t>护卫是多少等级擕带的宝宝？</t>
-  </si>
-  <si>
-    <t>修罗傀儡鬼是多少等级擕带的宝宝？</t>
-  </si>
-  <si>
-    <t>修罗傀儡妖是多少等级擕带的宝宝？</t>
-  </si>
-  <si>
-    <t>蜃气妖是多少等级擕带的宝宝？</t>
-  </si>
-  <si>
-    <t>凈瓶女娲是多少等级擕带的宝宝？</t>
-  </si>
-  <si>
-    <t>毗舍童子是多少等级擕带的宝宝？</t>
-  </si>
-  <si>
-    <t>幽灵是多少等级擕带的宝宝？</t>
-  </si>
-  <si>
-    <t>游戏发现有人拉人、打广告应该？</t>
-  </si>
-  <si>
-    <t>向GM举报</t>
-  </si>
-  <si>
-    <t>一起拉</t>
-  </si>
-  <si>
-    <t>当作看不见</t>
-  </si>
-  <si>
-    <t>律法女娲是多少等级擕带的宝宝？</t>
-  </si>
-  <si>
-    <t>举报游戏拉人、打广告奖励多少金币？</t>
-  </si>
-  <si>
-    <t>5万</t>
-  </si>
-  <si>
-    <t>10万</t>
-  </si>
-  <si>
-    <t>30万</t>
-  </si>
-  <si>
-    <t>群內发现有人拉人、打广告应该？</t>
-  </si>
-  <si>
-    <t>举报群內拉人奖励多少金币？</t>
-  </si>
-  <si>
-    <t>三界菁英是什么活动第一的称谓？</t>
-  </si>
-  <si>
-    <t>帮派竞赛</t>
-  </si>
-  <si>
-    <t>比武大会</t>
-  </si>
-  <si>
-    <t>门派闯关</t>
-  </si>
-  <si>
-    <t>本服装备最高多少级？</t>
-  </si>
-  <si>
-    <t>本服宝石最高可以合多少级？</t>
-  </si>
-  <si>
-    <t>多少级装备可以镶嵌21级宝石？</t>
-  </si>
-  <si>
-    <t>什么特效可以穿比自身更高级的装备？</t>
-  </si>
-  <si>
-    <t>神农</t>
-  </si>
-  <si>
-    <t>无视装备等级</t>
-  </si>
-  <si>
-    <t>无级别限制</t>
-  </si>
-  <si>
-    <t>一件装备最高可以镶嵌多少个宝石？</t>
-  </si>
-  <si>
-    <t>本服灵饰最高多少级？</t>
-  </si>
-  <si>
-    <t>月卡一天可以免费得多少金币？</t>
-  </si>
-  <si>
-    <t>50万</t>
-  </si>
-  <si>
-    <t>月卡一天可以免费得多少信用值？</t>
-  </si>
-  <si>
-    <t>3万</t>
-  </si>
-  <si>
-    <t>月卡一天可以免费得多少神兜兜？</t>
-  </si>
-  <si>
-    <t>5个</t>
-  </si>
-  <si>
-    <t>10个</t>
-  </si>
-  <si>
-    <t>20个</t>
-  </si>
-  <si>
-    <t>月卡一天可以免费得多少修炼果和九转金丹？</t>
-  </si>
-  <si>
-    <t>1千个</t>
-  </si>
-  <si>
-    <t>2千个</t>
-  </si>
-  <si>
-    <t>3千个</t>
-  </si>
-  <si>
-    <t>月卡多少钱一张？</t>
-  </si>
-  <si>
-    <t>30元</t>
-  </si>
-  <si>
-    <t>40元</t>
-  </si>
-  <si>
-    <t>50元</t>
-  </si>
-  <si>
-    <t>GM开服的原因？</t>
-  </si>
-  <si>
-    <t>赚钱</t>
-  </si>
-  <si>
-    <t>热爱梦幻</t>
-  </si>
-  <si>
-    <t>无聊</t>
-  </si>
-  <si>
-    <t>星宿的奖励多少金币？</t>
-  </si>
-  <si>
-    <t>梦魔夜叉奖励多少金币？</t>
-  </si>
-  <si>
-    <t>星宿多少超过多少钱不能打？</t>
-  </si>
-  <si>
-    <t>梦魔夜叉要多少级才可以打？</t>
-  </si>
-  <si>
-    <t>宝宝最高可以合成多少技能？</t>
-  </si>
-  <si>
-    <t>一只宝宝最多可以吃多少个元宵？</t>
-  </si>
-  <si>
-    <t>15个</t>
-  </si>
-  <si>
-    <t>以下其中那个是稀有技能？</t>
-  </si>
-  <si>
-    <t>高级必杀</t>
-  </si>
-  <si>
-    <t>洞察</t>
-  </si>
-  <si>
-    <t>水漫金山</t>
-  </si>
-  <si>
-    <t>力劈华山</t>
-  </si>
-  <si>
-    <t>高级连击</t>
-  </si>
-  <si>
-    <t>高级偷袭</t>
-  </si>
-  <si>
-    <t>神马浮云</t>
-  </si>
-  <si>
-    <t>高级强力</t>
-  </si>
-  <si>
-    <t>高级夜战</t>
-  </si>
-  <si>
-    <t>高级法爆</t>
-  </si>
-  <si>
-    <t>须弥真言</t>
-  </si>
-  <si>
-    <t>级级魔之心</t>
-  </si>
-  <si>
-    <t>高级否定</t>
-  </si>
-  <si>
-    <t>高级水吸</t>
-  </si>
-  <si>
-    <t>劫雷降临</t>
-  </si>
-  <si>
-    <t>以下那个BOSS难度最大？</t>
   </si>
   <si>
     <t>大唐官职</t>
@@ -585,10 +588,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -608,79 +611,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -708,9 +638,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,9 +704,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,11 +750,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -769,13 +772,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,7 +892,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,157 +952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,7 +970,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,6 +986,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,9 +1031,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,19 +1043,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,21 +1063,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1068,10 +1071,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1080,133 +1083,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1579,8 +1582,8 @@
   <sheetPr/>
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75:H78"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2158,7 +2161,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5">
         <v>9013</v>
@@ -4817,7 +4820,7 @@
         <v>30202</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="I65" s="5">
         <v>9005</v>
@@ -4826,7 +4829,7 @@
         <v>30257</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L65" s="2">
         <v>9007</v>
@@ -4867,7 +4870,7 @@
         <v>30243</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I66" s="2">
         <v>9003</v>
@@ -4917,7 +4920,7 @@
         <v>30256</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I67" s="5">
         <v>9042</v>
@@ -4926,7 +4929,7 @@
         <v>30252</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L67" s="5">
         <v>9041</v>
@@ -4955,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F68" s="5">
         <v>9012</v>
@@ -4967,7 +4970,7 @@
         <v>30203</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I68" s="2">
         <v>9007</v>
@@ -4976,7 +4979,7 @@
         <v>30260</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L68" s="5">
         <v>9005</v>
@@ -5005,10 +5008,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F69" s="5">
         <v>9006</v>
@@ -5017,7 +5020,7 @@
         <v>30243</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I69" s="2">
         <v>9003</v>
@@ -5026,7 +5029,7 @@
         <v>30242</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L69" s="5">
         <v>9011</v>
@@ -5055,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F70" s="5">
         <v>9042</v>
@@ -5067,7 +5070,7 @@
         <v>30252</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I70" s="5">
         <v>9001</v>
@@ -5076,7 +5079,7 @@
         <v>30251</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L70" s="5">
         <v>9016</v>
@@ -5105,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>22</v>
@@ -5117,7 +5120,7 @@
         <v>30260</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I71" s="5">
         <v>9038</v>
@@ -5126,7 +5129,7 @@
         <v>30262</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L71" s="5">
         <v>9101</v>
@@ -5155,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F72" s="5">
         <v>9006</v>
@@ -5176,7 +5179,7 @@
         <v>30202</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L72" s="5">
         <v>9100</v>
@@ -5205,10 +5208,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F73" s="5">
         <v>9005</v>
@@ -5226,7 +5229,7 @@
         <v>30307</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L73" s="5">
         <v>9016</v>
@@ -5255,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F74" s="5">
         <v>9004</v>
@@ -5276,7 +5279,7 @@
         <v>30243</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L74" s="5">
         <v>9005</v>
@@ -5305,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E75" s="4">
         <v>123456789</v>
@@ -5317,7 +5320,7 @@
         <v>30205</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I75" s="5">
         <v>9016</v>
@@ -5355,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E76" s="4">
         <v>123456789</v>
@@ -5367,7 +5370,7 @@
         <v>30257</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I76" s="5">
         <v>9038</v>
@@ -5405,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E77" s="4">
         <v>123456789</v>
@@ -5417,7 +5420,7 @@
         <v>30260</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I77" s="5">
         <v>9102</v>
@@ -5455,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E78" s="4">
         <v>123456789</v>
@@ -5467,7 +5470,7 @@
         <v>30259</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I78" s="5">
         <v>9013</v>

--- a/Table/Table_xls/D答题.xlsx
+++ b/Table/Table_xls/D答题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="134">
   <si>
     <t>序列</t>
   </si>
@@ -94,22 +93,22 @@
     <t>难度最低的任务是什么？</t>
   </si>
   <si>
-    <t>傲来封妖</t>
+    <t>封妖</t>
   </si>
   <si>
     <t>皇宫飞贼</t>
   </si>
   <si>
-    <t>飞升副本</t>
+    <t>飞升任务</t>
   </si>
   <si>
     <t>所有BOSS中难度最高的任务是什么？</t>
   </si>
   <si>
-    <t>生死劫</t>
-  </si>
-  <si>
-    <t>蚩尤封印</t>
+    <t>每日任务</t>
+  </si>
+  <si>
+    <t>挑战蚩尤</t>
   </si>
   <si>
     <t>6星天罡地煞</t>
@@ -118,7 +117,7 @@
     <t>提升修炼最快的方法是什么？</t>
   </si>
   <si>
-    <t>跑环</t>
+    <t>帮派点修</t>
   </si>
   <si>
     <t>刷BOSS</t>
@@ -154,28 +153,28 @@
     <t>以上皆是</t>
   </si>
   <si>
-    <t>月卡多少仙玉一张？</t>
-  </si>
-  <si>
-    <t>9800个</t>
-  </si>
-  <si>
-    <t>300个</t>
-  </si>
-  <si>
-    <t>9800万</t>
-  </si>
-  <si>
-    <t>GM首充多少钱？</t>
-  </si>
-  <si>
-    <t>不充值</t>
-  </si>
-  <si>
-    <t>没有首充</t>
-  </si>
-  <si>
-    <t>10元</t>
+    <t>打广告拉人会出现什么问题？</t>
+  </si>
+  <si>
+    <t>没有影响</t>
+  </si>
+  <si>
+    <t>有奖励</t>
+  </si>
+  <si>
+    <t>封号</t>
+  </si>
+  <si>
+    <t>游戏充值有没有额外奖励</t>
+  </si>
+  <si>
+    <t>不知道</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>没有</t>
   </si>
   <si>
     <t>摆摊交易需要什么？</t>
@@ -277,7 +276,7 @@
     <t>GM</t>
   </si>
   <si>
-    <t>袁守城</t>
+    <t>长安袁守城</t>
   </si>
   <si>
     <t>神兽总共可以突破多少次？</t>
@@ -286,13 +285,10 @@
     <t>本服是什么服？</t>
   </si>
   <si>
-    <t>极致仿官</t>
-  </si>
-  <si>
-    <t>微变态</t>
-  </si>
-  <si>
-    <t>超变态</t>
+    <t>精品独家仿官</t>
+  </si>
+  <si>
+    <t>不清楚</t>
   </si>
   <si>
     <t>鬼将是多少等级擕带的宝宝？</t>
@@ -373,7 +369,7 @@
     <t>本服宝石最高可以合多少级？</t>
   </si>
   <si>
-    <t>多少级装备可以镶嵌21级宝石？</t>
+    <t>多少级装备最多可以镶嵌几颗宝石？</t>
   </si>
   <si>
     <t>什么特效可以穿比自身更高级的装备？</t>
@@ -394,187 +390,52 @@
     <t>本服灵饰最高多少级？</t>
   </si>
   <si>
-    <t>月卡一天可以免费得多少金币？</t>
-  </si>
-  <si>
-    <t>50万</t>
-  </si>
-  <si>
-    <t>月卡一天可以免费得多少信用值？</t>
-  </si>
-  <si>
-    <t>3万</t>
-  </si>
-  <si>
-    <t>月卡一天可以免费得多少神兜兜？</t>
-  </si>
-  <si>
-    <t>5个</t>
-  </si>
-  <si>
-    <t>10个</t>
-  </si>
-  <si>
-    <t>20个</t>
-  </si>
-  <si>
-    <t>月卡一天可以免费得多少修炼果和九转金丹？</t>
-  </si>
-  <si>
-    <t>1千个</t>
-  </si>
-  <si>
-    <t>2千个</t>
-  </si>
-  <si>
-    <t>3千个</t>
-  </si>
-  <si>
-    <t>月卡多少钱一张？</t>
-  </si>
-  <si>
-    <t>30元</t>
-  </si>
-  <si>
-    <t>40元</t>
-  </si>
-  <si>
-    <t>50元</t>
+    <t>游戏充值怎么充值？</t>
+  </si>
+  <si>
+    <t>线下找玩家</t>
+  </si>
+  <si>
+    <t>通过后台点击充值链接</t>
   </si>
   <si>
     <t>GM开服的原因？</t>
   </si>
   <si>
-    <t>赚钱</t>
-  </si>
-  <si>
     <t>热爱梦幻</t>
   </si>
   <si>
     <t>无聊</t>
   </si>
   <si>
-    <t>星宿的奖励多少金币？</t>
-  </si>
-  <si>
-    <t>梦魔夜叉奖励多少金币？</t>
-  </si>
-  <si>
-    <t>星宿多少超过多少钱不能打？</t>
-  </si>
-  <si>
-    <t>梦魔夜叉要多少级才可以打？</t>
-  </si>
-  <si>
-    <t>宝宝最高可以合成多少技能？</t>
-  </si>
-  <si>
-    <t>一只宝宝最多可以吃多少个元宵？</t>
-  </si>
-  <si>
-    <t>15个</t>
-  </si>
-  <si>
-    <t>以下其中那个是稀有技能？</t>
-  </si>
-  <si>
-    <t>高级必杀</t>
-  </si>
-  <si>
-    <t>洞察</t>
-  </si>
-  <si>
-    <t>水漫金山</t>
-  </si>
-  <si>
-    <t>力劈华山</t>
-  </si>
-  <si>
-    <t>高级连击</t>
-  </si>
-  <si>
-    <t>高级偷袭</t>
-  </si>
-  <si>
-    <t>神马浮云</t>
-  </si>
-  <si>
-    <t>高级强力</t>
-  </si>
-  <si>
-    <t>高级夜战</t>
-  </si>
-  <si>
-    <t>高级法爆</t>
-  </si>
-  <si>
-    <t>须弥真言</t>
-  </si>
-  <si>
-    <t>级级魔之心</t>
-  </si>
-  <si>
-    <t>高级否定</t>
-  </si>
-  <si>
-    <t>高级水吸</t>
-  </si>
-  <si>
-    <t>劫雷降临</t>
-  </si>
-  <si>
-    <t>以下那个BOSS难度最大？</t>
-  </si>
-  <si>
-    <t>万年妖王</t>
-  </si>
-  <si>
-    <t>大唐官职</t>
-  </si>
-  <si>
-    <t>6星天罡</t>
-  </si>
-  <si>
-    <t>6星地煞</t>
-  </si>
-  <si>
-    <t>以下那个门派能给队友加奶?</t>
-  </si>
-  <si>
-    <t>化生寺</t>
-  </si>
-  <si>
-    <t>方寸山</t>
-  </si>
-  <si>
-    <t>五庄观</t>
-  </si>
-  <si>
-    <t>地府</t>
-  </si>
-  <si>
-    <t>狮驼岭</t>
-  </si>
-  <si>
-    <t>凌波城</t>
-  </si>
-  <si>
-    <t>普陀山</t>
-  </si>
-  <si>
-    <t>以下那个BOSS难度最小？</t>
-  </si>
-  <si>
-    <t>生死决</t>
-  </si>
-  <si>
-    <t>发现BUG应该找谁？</t>
-  </si>
-  <si>
-    <t>技术负责人</t>
-  </si>
-  <si>
-    <t>忽略</t>
+    <t>星宿可以获得经验吗？</t>
+  </si>
+  <si>
+    <t>可以</t>
+  </si>
+  <si>
+    <t>不可以</t>
+  </si>
+  <si>
+    <t>元辰可以获得经验吗？</t>
+  </si>
+  <si>
+    <t>怎么可以快速升级？</t>
+  </si>
+  <si>
+    <t>做每日任务</t>
+  </si>
+  <si>
+    <t>抓鬼可以快速升级吗？</t>
+  </si>
+  <si>
+    <t>宝宝可以染色吗？</t>
+  </si>
+  <si>
+    <t>宝宝怎么转生？</t>
+  </si>
+  <si>
+    <t>吃千叶</t>
   </si>
   <si>
     <t>以下那个是技术的QQ？</t>
@@ -588,12 +449,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,11 +474,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,21 +530,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,7 +544,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,45 +559,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,18 +574,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,10 +612,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -772,67 +638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +662,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,19 +758,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,61 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,36 +837,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,6 +865,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1036,6 +887,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,10 +937,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,133 +949,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,6 +1157,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1573,28 +1444,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="52.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8796296296296" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="1"/>
-    <col min="15" max="16" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="13.1296296296296" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3796296296296" style="1"/>
+    <col min="15" max="16" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2711,7 +2581,7 @@
         <v>74</v>
       </c>
       <c r="E23" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F23" s="5">
         <v>9013</v>
@@ -2838,7 +2708,7 @@
         <v>30257</v>
       </c>
       <c r="N25" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O25" s="7">
         <v>5840</v>
@@ -2870,7 +2740,7 @@
         <v>30304</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="I26" s="5">
         <v>9039</v>
@@ -2879,7 +2749,7 @@
         <v>30259</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26" s="2">
         <v>9016</v>
@@ -2908,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="4">
         <v>95</v>
@@ -2958,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="4">
         <v>135</v>
@@ -3008,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="4">
         <v>5</v>
@@ -3058,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="4">
         <v>115</v>
@@ -3108,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="4">
         <v>135</v>
@@ -3158,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" s="4">
         <v>155</v>
@@ -3208,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="4">
         <v>115</v>
@@ -3258,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="4">
         <v>135</v>
@@ -3308,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" s="4">
         <v>95</v>
@@ -3358,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F36" s="5">
         <v>9013</v>
@@ -3370,7 +3240,7 @@
         <v>30244</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I36" s="5">
         <v>9004</v>
@@ -3379,7 +3249,7 @@
         <v>30202</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L36" s="5">
         <v>9007</v>
@@ -3408,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="4">
         <v>95</v>
@@ -3458,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="F38" s="5">
         <v>9012</v>
@@ -3470,7 +3340,7 @@
         <v>30203</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I38" s="5">
         <v>9006</v>
@@ -3479,7 +3349,7 @@
         <v>30243</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L38" s="2">
         <v>9016</v>
@@ -3508,10 +3378,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" s="5">
         <v>9013</v>
@@ -3520,7 +3390,7 @@
         <v>30244</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I39" s="5">
         <v>9000</v>
@@ -3529,7 +3399,7 @@
         <v>30253</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L39" s="2">
         <v>9001</v>
@@ -3558,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F40" s="5">
         <v>9012</v>
@@ -3570,7 +3440,7 @@
         <v>30203</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I40" s="5">
         <v>9004</v>
@@ -3579,7 +3449,7 @@
         <v>30202</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L40" s="5">
         <v>9000</v>
@@ -3608,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="F41" s="5">
         <v>9004</v>
@@ -3620,7 +3490,7 @@
         <v>30202</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I41" s="5">
         <v>9012</v>
@@ -3629,7 +3499,7 @@
         <v>30203</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L41" s="2">
         <v>9006</v>
@@ -3658,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="4">
         <v>155</v>
@@ -3688,7 +3558,7 @@
         <v>30307</v>
       </c>
       <c r="N42" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" s="7">
         <v>5840</v>
@@ -3708,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="4">
         <v>21</v>
@@ -3758,10 +3628,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" s="4">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="F44" s="5">
         <v>9016</v>
@@ -3770,7 +3640,7 @@
         <v>30245</v>
       </c>
       <c r="H44" s="4">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="I44" s="5">
         <v>9004</v>
@@ -3779,7 +3649,7 @@
         <v>30202</v>
       </c>
       <c r="K44" s="4">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="L44" s="2">
         <v>9012</v>
@@ -3808,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="F45" s="5">
         <v>9041</v>
@@ -3820,7 +3690,7 @@
         <v>30255</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I45" s="5">
         <v>9007</v>
@@ -3829,7 +3699,7 @@
         <v>30260</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L45" s="5">
         <v>9004</v>
@@ -3858,7 +3728,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46" s="4">
         <v>3</v>
@@ -3908,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" s="4">
         <v>120</v>
@@ -3958,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="F48" s="5">
         <v>9100</v>
@@ -3970,7 +3840,7 @@
         <v>30303</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I48" s="5">
         <v>9016</v>
@@ -3979,7 +3849,7 @@
         <v>30245</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="L48" s="2">
         <v>9012</v>
@@ -3988,7 +3858,7 @@
         <v>30203</v>
       </c>
       <c r="N48" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O48" s="7">
         <v>5840</v>
@@ -4008,19 +3878,19 @@
         <v>0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F49" s="5">
-        <v>9038</v>
+        <v>9100</v>
       </c>
       <c r="G49" s="5">
-        <v>30262</v>
+        <v>30303</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="I49" s="5">
         <v>9016</v>
@@ -4029,7 +3899,7 @@
         <v>30245</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="L49" s="2">
         <v>9012</v>
@@ -4038,7 +3908,7 @@
         <v>30203</v>
       </c>
       <c r="N49" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O49" s="7">
         <v>5840</v>
@@ -4058,34 +3928,34 @@
         <v>0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F50" s="5">
-        <v>9013</v>
+        <v>9100</v>
       </c>
       <c r="G50" s="5">
-        <v>30244</v>
+        <v>30303</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I50" s="5">
-        <v>9007</v>
+        <v>9016</v>
       </c>
       <c r="J50" s="5">
-        <v>30260</v>
+        <v>30245</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="L50" s="2">
-        <v>9006</v>
+        <v>9012</v>
       </c>
       <c r="M50" s="5">
-        <v>30243</v>
+        <v>30203</v>
       </c>
       <c r="N50" s="5">
         <v>2</v>
@@ -4108,34 +3978,34 @@
         <v>0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F51" s="5">
+        <v>9100</v>
+      </c>
+      <c r="G51" s="5">
+        <v>30303</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I51" s="5">
         <v>9016</v>
       </c>
-      <c r="G51" s="5">
+      <c r="J51" s="5">
         <v>30245</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I51" s="5">
-        <v>9006</v>
-      </c>
-      <c r="J51" s="5">
-        <v>30243</v>
-      </c>
       <c r="K51" s="4" t="s">
-        <v>128</v>
+        <v>42</v>
       </c>
       <c r="L51" s="2">
-        <v>9007</v>
-      </c>
-      <c r="M51" s="2">
-        <v>30260</v>
+        <v>9012</v>
+      </c>
+      <c r="M51" s="5">
+        <v>30203</v>
       </c>
       <c r="N51" s="5">
         <v>2</v>
@@ -4158,37 +4028,37 @@
         <v>0</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F52" s="5">
-        <v>9011</v>
+        <v>9100</v>
       </c>
       <c r="G52" s="5">
-        <v>30261</v>
+        <v>30303</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I52" s="5">
-        <v>9100</v>
+        <v>9016</v>
       </c>
       <c r="J52" s="5">
-        <v>30303</v>
+        <v>30245</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L52" s="5">
-        <v>9038</v>
+        <v>42</v>
+      </c>
+      <c r="L52" s="2">
+        <v>9012</v>
       </c>
       <c r="M52" s="5">
-        <v>30262</v>
+        <v>30203</v>
       </c>
       <c r="N52" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52" s="7">
         <v>5840</v>
@@ -4208,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="F53" s="5">
         <v>9006</v>
@@ -4220,7 +4090,7 @@
         <v>30243</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I53" s="5">
         <v>9013</v>
@@ -4229,7 +4099,7 @@
         <v>30244</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="L53" s="2">
         <v>9003</v>
@@ -4258,10 +4128,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="4">
-        <v>5555</v>
+        <v>122</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F54" s="5">
         <v>9007</v>
@@ -4269,8 +4139,8 @@
       <c r="G54" s="5">
         <v>30260</v>
       </c>
-      <c r="H54" s="4">
-        <v>6666</v>
+      <c r="H54" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="I54" s="2">
         <v>9000</v>
@@ -4278,8 +4148,8 @@
       <c r="J54" s="2">
         <v>30253</v>
       </c>
-      <c r="K54" s="1">
-        <v>7777</v>
+      <c r="K54" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L54" s="5">
         <v>9101</v>
@@ -4308,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="4">
-        <v>15555</v>
+        <v>125</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F55" s="5">
         <v>9002</v>
@@ -4319,8 +4189,8 @@
       <c r="G55" s="5">
         <v>30205</v>
       </c>
-      <c r="H55" s="1">
-        <v>13333</v>
+      <c r="H55" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="I55" s="5">
         <v>9042</v>
@@ -4328,8 +4198,8 @@
       <c r="J55" s="5">
         <v>30252</v>
       </c>
-      <c r="K55" s="4">
-        <v>11111</v>
+      <c r="K55" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="L55" s="5">
         <v>9004</v>
@@ -4338,7 +4208,7 @@
         <v>30202</v>
       </c>
       <c r="N55" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O55" s="7">
         <v>5840</v>
@@ -4358,10 +4228,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="4">
-        <v>109</v>
+        <v>126</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F56" s="5">
         <v>9013</v>
@@ -4369,8 +4239,8 @@
       <c r="G56" s="5">
         <v>30244</v>
       </c>
-      <c r="H56" s="4">
-        <v>100</v>
+      <c r="H56" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I56" s="2">
         <v>9003</v>
@@ -4378,8 +4248,8 @@
       <c r="J56" s="5">
         <v>30242</v>
       </c>
-      <c r="K56" s="4">
-        <v>105</v>
+      <c r="K56" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="L56" s="5">
         <v>9038</v>
@@ -4408,10 +4278,10 @@
         <v>0</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="1">
-        <v>100</v>
+        <v>128</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="F57" s="5">
         <v>9005</v>
@@ -4419,8 +4289,8 @@
       <c r="G57" s="5">
         <v>30257</v>
       </c>
-      <c r="H57" s="4">
-        <v>105</v>
+      <c r="H57" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I57" s="5">
         <v>9016</v>
@@ -4428,8 +4298,8 @@
       <c r="J57" s="5">
         <v>30245</v>
       </c>
-      <c r="K57" s="4">
-        <v>109</v>
+      <c r="K57" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="L57" s="5">
         <v>9102</v>
@@ -4458,10 +4328,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E58" s="4">
-        <v>17</v>
+        <v>129</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F58" s="5">
         <v>9004</v>
@@ -4469,8 +4339,8 @@
       <c r="G58" s="5">
         <v>30202</v>
       </c>
-      <c r="H58" s="4">
-        <v>15</v>
+      <c r="H58" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="I58" s="5">
         <v>9007</v>
@@ -4478,8 +4348,8 @@
       <c r="J58" s="5">
         <v>30260</v>
       </c>
-      <c r="K58" s="4">
-        <v>16</v>
+      <c r="K58" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="L58" s="2">
         <v>9006</v>
@@ -4508,10 +4378,10 @@
         <v>0</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F59" s="5">
         <v>9011</v>
@@ -4520,7 +4390,7 @@
         <v>30261</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I59" s="5">
         <v>9100</v>
@@ -4529,7 +4399,7 @@
         <v>30303</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="L59" s="5">
         <v>9016</v>
@@ -4558,34 +4428,34 @@
         <v>0</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F60" s="2">
-        <v>9003</v>
+        <v>117</v>
+      </c>
+      <c r="F60" s="5">
+        <v>9100</v>
       </c>
       <c r="G60" s="5">
-        <v>30242</v>
+        <v>30303</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I60" s="5">
+        <v>9016</v>
+      </c>
+      <c r="J60" s="5">
+        <v>30245</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L60" s="2">
         <v>9012</v>
       </c>
-      <c r="J60" s="5">
+      <c r="M60" s="5">
         <v>30203</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L60" s="5">
-        <v>9104</v>
-      </c>
-      <c r="M60" s="5">
-        <v>30307</v>
       </c>
       <c r="N60" s="5">
         <v>2</v>
@@ -4608,37 +4478,37 @@
         <v>0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="F61" s="5">
-        <v>9009</v>
+        <v>9100</v>
       </c>
       <c r="G61" s="5">
-        <v>30308</v>
+        <v>30303</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="I61" s="5">
-        <v>9066</v>
+        <v>9016</v>
       </c>
       <c r="J61" s="5">
-        <v>30201</v>
+        <v>30245</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L61" s="5">
-        <v>9001</v>
+        <v>42</v>
+      </c>
+      <c r="L61" s="2">
+        <v>9012</v>
       </c>
       <c r="M61" s="5">
-        <v>30251</v>
+        <v>30203</v>
       </c>
       <c r="N61" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" s="7">
         <v>5840</v>
@@ -4658,19 +4528,19 @@
         <v>0</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F62" s="5">
-        <v>9013</v>
+        <v>9100</v>
       </c>
       <c r="G62" s="5">
-        <v>30244</v>
+        <v>30303</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="I62" s="5">
         <v>9016</v>
@@ -4679,16 +4549,16 @@
         <v>30245</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L62" s="5">
-        <v>9038</v>
+        <v>42</v>
+      </c>
+      <c r="L62" s="2">
+        <v>9012</v>
       </c>
       <c r="M62" s="5">
-        <v>30262</v>
+        <v>30203</v>
       </c>
       <c r="N62" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O62" s="7">
         <v>5840</v>
@@ -4708,10 +4578,10 @@
         <v>0</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="F63" s="5">
         <v>9100</v>
@@ -4720,22 +4590,22 @@
         <v>30303</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I63" s="2">
-        <v>9006</v>
+        <v>118</v>
+      </c>
+      <c r="I63" s="5">
+        <v>9016</v>
       </c>
       <c r="J63" s="5">
-        <v>30243</v>
+        <v>30245</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L63" s="5">
-        <v>9102</v>
+        <v>42</v>
+      </c>
+      <c r="L63" s="2">
+        <v>9012</v>
       </c>
       <c r="M63" s="5">
-        <v>30305</v>
+        <v>30203</v>
       </c>
       <c r="N63" s="5">
         <v>2</v>
@@ -4758,37 +4628,37 @@
         <v>0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" s="2">
-        <v>9007</v>
-      </c>
-      <c r="G64" s="2">
-        <v>30260</v>
+        <v>117</v>
+      </c>
+      <c r="F64" s="5">
+        <v>9100</v>
+      </c>
+      <c r="G64" s="5">
+        <v>30303</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="I64" s="5">
-        <v>9004</v>
+        <v>9016</v>
       </c>
       <c r="J64" s="5">
-        <v>30202</v>
+        <v>30245</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="L64" s="2">
-        <v>9000</v>
-      </c>
-      <c r="M64" s="2">
-        <v>30253</v>
+        <v>9012</v>
+      </c>
+      <c r="M64" s="5">
+        <v>30203</v>
       </c>
       <c r="N64" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O64" s="7">
         <v>5840</v>
@@ -4808,34 +4678,34 @@
         <v>0</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="F65" s="5">
-        <v>9004</v>
+        <v>9100</v>
       </c>
       <c r="G65" s="5">
-        <v>30202</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>161</v>
+        <v>30303</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="I65" s="5">
-        <v>9005</v>
+        <v>9016</v>
       </c>
       <c r="J65" s="5">
-        <v>30257</v>
+        <v>30245</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="L65" s="2">
-        <v>9007</v>
-      </c>
-      <c r="M65" s="2">
-        <v>30260</v>
+        <v>9012</v>
+      </c>
+      <c r="M65" s="5">
+        <v>30203</v>
       </c>
       <c r="N65" s="5">
         <v>2</v>
@@ -4858,37 +4728,37 @@
         <v>0</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="2">
-        <v>9006</v>
-      </c>
-      <c r="G66" s="2">
-        <v>30243</v>
+        <v>117</v>
+      </c>
+      <c r="F66" s="5">
+        <v>9100</v>
+      </c>
+      <c r="G66" s="5">
+        <v>30303</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I66" s="2">
-        <v>9003</v>
+        <v>118</v>
+      </c>
+      <c r="I66" s="5">
+        <v>9016</v>
       </c>
       <c r="J66" s="5">
-        <v>30242</v>
+        <v>30245</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="5">
-        <v>9001</v>
+        <v>42</v>
+      </c>
+      <c r="L66" s="2">
+        <v>9012</v>
       </c>
       <c r="M66" s="5">
-        <v>30251</v>
+        <v>30203</v>
       </c>
       <c r="N66" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O66" s="7">
         <v>5840</v>
@@ -4908,37 +4778,37 @@
         <v>0</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="2">
-        <v>9040</v>
-      </c>
-      <c r="G67" s="2">
-        <v>30256</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>163</v>
+        <v>116</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" s="5">
+        <v>9100</v>
+      </c>
+      <c r="G67" s="5">
+        <v>30303</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="I67" s="5">
-        <v>9042</v>
+        <v>9016</v>
       </c>
       <c r="J67" s="5">
-        <v>30252</v>
+        <v>30245</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="L67" s="5">
-        <v>9041</v>
+        <v>42</v>
+      </c>
+      <c r="L67" s="2">
+        <v>9012</v>
       </c>
       <c r="M67" s="5">
-        <v>30255</v>
+        <v>30203</v>
       </c>
       <c r="N67" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" s="7">
         <v>5840</v>
@@ -4958,37 +4828,37 @@
         <v>0</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="F68" s="5">
+        <v>9100</v>
+      </c>
+      <c r="G68" s="5">
+        <v>30303</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I68" s="5">
+        <v>9016</v>
+      </c>
+      <c r="J68" s="5">
+        <v>30245</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L68" s="2">
         <v>9012</v>
       </c>
-      <c r="G68" s="5">
+      <c r="M68" s="5">
         <v>30203</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I68" s="2">
-        <v>9007</v>
-      </c>
-      <c r="J68" s="2">
-        <v>30260</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L68" s="5">
-        <v>9005</v>
-      </c>
-      <c r="M68" s="5">
-        <v>30257</v>
-      </c>
       <c r="N68" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" s="7">
         <v>5840</v>
@@ -5008,34 +4878,34 @@
         <v>0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="F69" s="5">
-        <v>9006</v>
+        <v>9100</v>
       </c>
       <c r="G69" s="5">
-        <v>30243</v>
+        <v>30303</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I69" s="2">
-        <v>9003</v>
+        <v>118</v>
+      </c>
+      <c r="I69" s="5">
+        <v>9016</v>
       </c>
       <c r="J69" s="5">
-        <v>30242</v>
+        <v>30245</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="L69" s="5">
-        <v>9011</v>
+        <v>42</v>
+      </c>
+      <c r="L69" s="2">
+        <v>9012</v>
       </c>
       <c r="M69" s="5">
-        <v>30261</v>
+        <v>30203</v>
       </c>
       <c r="N69" s="5">
         <v>2</v>
@@ -5058,37 +4928,37 @@
         <v>0</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>170</v>
+        <v>116</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F70" s="5">
-        <v>9042</v>
+        <v>9100</v>
       </c>
       <c r="G70" s="5">
-        <v>30252</v>
+        <v>30303</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="I70" s="5">
-        <v>9001</v>
+        <v>9016</v>
       </c>
       <c r="J70" s="5">
-        <v>30251</v>
+        <v>30245</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="L70" s="5">
-        <v>9016</v>
+        <v>42</v>
+      </c>
+      <c r="L70" s="2">
+        <v>9012</v>
       </c>
       <c r="M70" s="5">
-        <v>30245</v>
+        <v>30203</v>
       </c>
       <c r="N70" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O70" s="7">
         <v>5840</v>
@@ -5108,37 +4978,37 @@
         <v>0</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="F71" s="5">
-        <v>9007</v>
+        <v>9100</v>
       </c>
       <c r="G71" s="5">
-        <v>30260</v>
+        <v>30303</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="I71" s="5">
-        <v>9038</v>
+        <v>9016</v>
       </c>
       <c r="J71" s="5">
-        <v>30262</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L71" s="5">
-        <v>9101</v>
+        <v>30245</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L71" s="2">
+        <v>9012</v>
       </c>
       <c r="M71" s="5">
-        <v>30304</v>
+        <v>30203</v>
       </c>
       <c r="N71" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O71" s="7">
         <v>5840</v>
@@ -5158,37 +5028,37 @@
         <v>0</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="F72" s="5">
-        <v>9006</v>
+        <v>9100</v>
       </c>
       <c r="G72" s="5">
-        <v>30243</v>
+        <v>30303</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="I72" s="5">
-        <v>9004</v>
+        <v>9016</v>
       </c>
       <c r="J72" s="5">
-        <v>30202</v>
+        <v>30245</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L72" s="5">
-        <v>9100</v>
+        <v>42</v>
+      </c>
+      <c r="L72" s="2">
+        <v>9012</v>
       </c>
       <c r="M72" s="5">
-        <v>30303</v>
+        <v>30203</v>
       </c>
       <c r="N72" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O72" s="7">
         <v>5840</v>
@@ -5208,37 +5078,37 @@
         <v>0</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="F73" s="5">
-        <v>9005</v>
+        <v>9100</v>
       </c>
       <c r="G73" s="5">
-        <v>30257</v>
+        <v>30303</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="I73" s="5">
-        <v>9104</v>
+        <v>9016</v>
       </c>
       <c r="J73" s="5">
-        <v>30307</v>
+        <v>30245</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L73" s="5">
-        <v>9016</v>
+        <v>42</v>
+      </c>
+      <c r="L73" s="2">
+        <v>9012</v>
       </c>
       <c r="M73" s="5">
-        <v>30245</v>
+        <v>30203</v>
       </c>
       <c r="N73" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O73" s="7">
         <v>5840</v>
@@ -5258,37 +5128,37 @@
         <v>0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="F74" s="5">
-        <v>9004</v>
+        <v>9100</v>
       </c>
       <c r="G74" s="5">
-        <v>30202</v>
+        <v>30303</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="I74" s="5">
-        <v>9006</v>
+        <v>9016</v>
       </c>
       <c r="J74" s="5">
-        <v>30243</v>
+        <v>30245</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L74" s="5">
-        <v>9005</v>
+        <v>42</v>
+      </c>
+      <c r="L74" s="2">
+        <v>9012</v>
       </c>
       <c r="M74" s="5">
-        <v>30257</v>
+        <v>30203</v>
       </c>
       <c r="N74" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O74" s="7">
         <v>5840</v>
@@ -5308,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="E75" s="4">
         <v>123456789</v>
@@ -5320,7 +5190,7 @@
         <v>30205</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="I75" s="5">
         <v>9016</v>
@@ -5328,8 +5198,8 @@
       <c r="J75" s="5">
         <v>30245</v>
       </c>
-      <c r="K75" s="4">
-        <v>69783616</v>
+      <c r="K75" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="L75" s="2">
         <v>9007</v>
@@ -5358,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="E76" s="4">
         <v>123456789</v>
@@ -5370,7 +5240,7 @@
         <v>30257</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="I76" s="5">
         <v>9038</v>
@@ -5378,8 +5248,8 @@
       <c r="J76" s="5">
         <v>30262</v>
       </c>
-      <c r="K76" s="4">
-        <v>69783616</v>
+      <c r="K76" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="L76" s="5">
         <v>9004</v>
@@ -5408,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="E77" s="4">
         <v>123456789</v>
@@ -5420,7 +5290,7 @@
         <v>30260</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="I77" s="5">
         <v>9102</v>
@@ -5428,8 +5298,8 @@
       <c r="J77" s="5">
         <v>30305</v>
       </c>
-      <c r="K77" s="4">
-        <v>69783616</v>
+      <c r="K77" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="L77" s="5">
         <v>9006</v>
@@ -5458,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="E78" s="4">
         <v>123456789</v>
@@ -5470,7 +5340,7 @@
         <v>30259</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="I78" s="5">
         <v>9013</v>
@@ -5478,8 +5348,8 @@
       <c r="J78" s="5">
         <v>30244</v>
       </c>
-      <c r="K78" s="4">
-        <v>69783616</v>
+      <c r="K78" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="L78" s="5">
         <v>9012</v>
@@ -5506,7 +5376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5514,7 +5384,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5523,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5531,7 +5401,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
